--- a/May 2020 to Jun 2020 - Cord Cutting Wizard - Change Log.xlsx
+++ b/May 2020 to Jun 2020 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24B9363-B0BE-4579-B321-09C4C2568076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD3448B-124C-43B5-BB0E-F01DD295F10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,25 +166,25 @@
     <t>TV5 Monde</t>
   </si>
   <si>
-    <t>New Network added to database in Jun 2020</t>
-  </si>
-  <si>
-    <t>Old Network removed from database in Jun 2020</t>
-  </si>
-  <si>
-    <t>Network added to Add-On Service in Jun 2020</t>
-  </si>
-  <si>
-    <t>Network added to base Service in Jun 2020</t>
-  </si>
-  <si>
-    <t>Network removed from base Service in Jun 2020</t>
-  </si>
-  <si>
-    <t>Network removed from Add-On Service in Jun 2020</t>
-  </si>
-  <si>
-    <t>Name of Add-on Service changed in Jun 2020</t>
+    <t>Network Added to Base Service</t>
+  </si>
+  <si>
+    <t>Network Removed from Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Removed from Database</t>
+  </si>
+  <si>
+    <t>Name of Add-On Package Changed</t>
+  </si>
+  <si>
+    <t>Network Added to Add-On Package</t>
+  </si>
+  <si>
+    <t>New Network Added to Database in Jun 2020</t>
+  </si>
+  <si>
+    <t>Network Removed from Base Service</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1090,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1132,7 +1132,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1146,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1160,7 +1160,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1174,7 +1174,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1188,7 +1188,7 @@
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1202,7 +1202,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1216,7 +1216,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1230,7 +1230,7 @@
         <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1244,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1261,7 +1261,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1278,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1295,7 +1295,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1323,7 +1323,7 @@
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1340,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1357,7 +1357,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1374,7 +1374,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1388,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1402,7 +1402,7 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1416,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1430,7 +1430,7 @@
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1444,7 +1444,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1458,7 +1458,7 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1472,7 +1472,7 @@
         <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1486,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1500,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1514,7 +1514,7 @@
         <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1528,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1542,7 +1542,7 @@
         <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1556,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
